--- a/سرویس های دوره ای تجهیزات گندله سازی/در دست بررسی/vlookup_code_faaliat_mijri.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/در دست بررسی/vlookup_code_faaliat_mijri.xlsx
@@ -295,6 +295,15 @@
     <t>PM.UT.1M.STP.CVBC.BC01</t>
   </si>
   <si>
+    <t>PM.IN.1M.RUN.MEBW.BW01</t>
+  </si>
+  <si>
+    <t>PM.IN.1M.STP.MEBW.BW01</t>
+  </si>
+  <si>
+    <t>PM.IN.1Y.STP.MEBW.BW01</t>
+  </si>
+  <si>
     <t>PM.EL.1M.RUN.SIBI.BI01</t>
   </si>
   <si>
@@ -2111,15 +2120,6 @@
   </si>
   <si>
     <t>PM.EL.1M.RUN.نامشخص.BALLINGSERVER01</t>
-  </si>
-  <si>
-    <t>PM.IN.1M.RUN.نامشخص.BW01</t>
-  </si>
-  <si>
-    <t>PM.IN.1M.STP.نامشخص.BW01</t>
-  </si>
-  <si>
-    <t>PM.IN.1Y.STP.نامشخص.BW01</t>
   </si>
   <si>
     <t>PM.EL.1M.RUN.نامشخص.CD01</t>
@@ -3728,7 +3728,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3976,7 +3976,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4104,7 +4104,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4232,7 +4232,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4400,7 +4400,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4712,7 +4712,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4856,7 +4856,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4912,7 +4912,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5208,7 +5208,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5344,7 +5344,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5432,7 +5432,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5440,7 +5440,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5472,7 +5472,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5480,7 +5480,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5512,7 +5512,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5784,7 +5784,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6008,7 +6008,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6600,7 +6600,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -6728,7 +6728,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7144,7 +7144,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7264,7 +7264,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -7320,7 +7320,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7344,7 +7344,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -7720,7 +7720,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -7744,7 +7744,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -7784,7 +7784,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -7792,7 +7792,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -7808,7 +7808,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -7824,7 +7824,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -7832,7 +7832,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -7840,7 +7840,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -7864,7 +7864,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -7872,7 +7872,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -7880,7 +7880,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -7888,7 +7888,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -7896,7 +7896,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -7904,7 +7904,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -7928,7 +7928,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -7960,7 +7960,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -7968,7 +7968,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -7992,7 +7992,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -8000,7 +8000,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8008,7 +8008,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -8016,7 +8016,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -8032,7 +8032,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -8040,7 +8040,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -8048,7 +8048,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -8056,7 +8056,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -8088,7 +8088,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8104,7 +8104,7 @@
         <v>640</v>
       </c>
       <c r="B640" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8128,7 +8128,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8152,7 +8152,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8168,7 +8168,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8184,7 +8184,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8192,7 +8192,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8200,7 +8200,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8232,7 +8232,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -8256,7 +8256,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8272,7 +8272,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -8280,7 +8280,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -8288,7 +8288,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -8296,7 +8296,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -8304,7 +8304,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -8328,7 +8328,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -8336,7 +8336,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -8344,7 +8344,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -8352,7 +8352,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -8368,7 +8368,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -8384,7 +8384,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -8392,7 +8392,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -8408,7 +8408,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -8416,7 +8416,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -8424,7 +8424,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -8432,7 +8432,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -8440,7 +8440,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -8448,7 +8448,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -8456,7 +8456,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -8464,7 +8464,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -8472,7 +8472,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -8480,7 +8480,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8488,7 +8488,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -8496,7 +8496,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -8504,7 +8504,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -8512,7 +8512,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -8520,7 +8520,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -8528,7 +8528,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -8536,7 +8536,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -8544,7 +8544,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -8552,7 +8552,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="702" spans="1:2">

--- a/سرویس های دوره ای تجهیزات گندله سازی/در دست بررسی/vlookup_code_faaliat_mijri.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/در دست بررسی/vlookup_code_faaliat_mijri.xlsx
@@ -1069,6 +1069,45 @@
     <t>PM.ME.1M.RUN.SIHP.HP01</t>
   </si>
   <si>
+    <t>PM.EL.1M.RUN.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.EL.1M.STP.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.EL.1Y.STP.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.HY.1M.RUN.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.HY.1M.STP.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.IN.1M.RUN.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.IN.1M.STP.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.IN.1Y.STP.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.LB.1M.STP.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.ME.1M.RUN.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.ME.1M.STP.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.UT.1M.RUN.LALE.LE01</t>
+  </si>
+  <si>
+    <t>PM.UT.1M.STP.LALE.LE01</t>
+  </si>
+  <si>
     <t>PM.EL.1M.RUN.SGLP.روشنایی01</t>
   </si>
   <si>
@@ -2369,45 +2408,6 @@
   </si>
   <si>
     <t>PM.TR.1M.STP.نامشخص.KVA01</t>
-  </si>
-  <si>
-    <t>PM.EL.1M.RUN.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.EL.1M.STP.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.EL.1Y.STP.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.HY.1M.RUN.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.HY.1M.STP.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.IN.1M.RUN.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.IN.1M.STP.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.IN.1Y.STP.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.LB.1M.STP.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.ME.1M.RUN.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.ME.1M.STP.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.UT.1M.RUN.نامشخص.LE01</t>
-  </si>
-  <si>
-    <t>PM.UT.1M.STP.نامشخص.LE01</t>
   </si>
   <si>
     <t>PM.EL.1M.RUN.نامشخص.LPG01</t>
@@ -5792,7 +5792,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -6008,7 +6008,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6208,7 +6208,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -6688,7 +6688,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -6728,7 +6728,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7120,7 +7120,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7248,7 +7248,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7344,7 +7344,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7472,7 +7472,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -7744,7 +7744,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -7784,7 +7784,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -7792,7 +7792,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -7808,7 +7808,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -7832,7 +7832,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -7840,7 +7840,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -7864,7 +7864,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -7928,7 +7928,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -7944,7 +7944,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -7952,7 +7952,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -7968,7 +7968,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -8000,7 +8000,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -8048,7 +8048,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -8056,7 +8056,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -8072,7 +8072,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -8080,7 +8080,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8088,7 +8088,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8168,7 +8168,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8192,7 +8192,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8216,7 +8216,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8232,7 +8232,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -8248,7 +8248,7 @@
         <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -8256,7 +8256,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8272,7 +8272,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -8280,7 +8280,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -8288,7 +8288,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -8296,7 +8296,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -8304,7 +8304,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -8336,7 +8336,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -8344,7 +8344,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -8368,7 +8368,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -8384,7 +8384,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -8392,7 +8392,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -8400,7 +8400,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -8408,7 +8408,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -8416,7 +8416,7 @@
         <v>679</v>
       </c>
       <c r="B679" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -8424,7 +8424,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -8432,7 +8432,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -8440,7 +8440,7 @@
         <v>682</v>
       </c>
       <c r="B682" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -8448,7 +8448,7 @@
         <v>683</v>
       </c>
       <c r="B683" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -8456,7 +8456,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -8464,7 +8464,7 @@
         <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -8472,7 +8472,7 @@
         <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -8480,7 +8480,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8488,7 +8488,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -8496,7 +8496,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -8504,7 +8504,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -8512,7 +8512,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -8520,7 +8520,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -8528,7 +8528,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -8536,7 +8536,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -8552,7 +8552,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>697</v>
       </c>
       <c r="B697" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>698</v>
       </c>
       <c r="B698" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>700</v>
       </c>
       <c r="B700" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>705</v>
       </c>
       <c r="B705" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>706</v>
       </c>
       <c r="B706" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -8640,7 +8640,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -8680,7 +8680,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>717</v>
       </c>
       <c r="B717" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -8728,7 +8728,7 @@
         <v>718</v>
       </c>
       <c r="B718" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -8736,7 +8736,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>720</v>
       </c>
       <c r="B720" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -8760,7 +8760,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>724</v>
       </c>
       <c r="B724" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>725</v>
       </c>
       <c r="B725" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -8800,7 +8800,7 @@
         <v>727</v>
       </c>
       <c r="B727" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -8808,7 +8808,7 @@
         <v>728</v>
       </c>
       <c r="B728" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -8816,7 +8816,7 @@
         <v>729</v>
       </c>
       <c r="B729" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -8824,7 +8824,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>731</v>
       </c>
       <c r="B731" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>732</v>
       </c>
       <c r="B732" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -8848,7 +8848,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -8856,7 +8856,7 @@
         <v>734</v>
       </c>
       <c r="B734" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -8864,7 +8864,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>737</v>
       </c>
       <c r="B737" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -8888,7 +8888,7 @@
         <v>738</v>
       </c>
       <c r="B738" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>739</v>
       </c>
       <c r="B739" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -8904,7 +8904,7 @@
         <v>740</v>
       </c>
       <c r="B740" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -8912,7 +8912,7 @@
         <v>741</v>
       </c>
       <c r="B741" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>742</v>
       </c>
       <c r="B742" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -8936,7 +8936,7 @@
         <v>744</v>
       </c>
       <c r="B744" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -8952,7 +8952,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -8960,7 +8960,7 @@
         <v>747</v>
       </c>
       <c r="B747" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>749</v>
       </c>
       <c r="B749" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -8984,7 +8984,7 @@
         <v>750</v>
       </c>
       <c r="B750" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -8992,7 +8992,7 @@
         <v>751</v>
       </c>
       <c r="B751" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9000,7 +9000,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>754</v>
       </c>
       <c r="B754" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>755</v>
       </c>
       <c r="B755" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>757</v>
       </c>
       <c r="B757" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>759</v>
       </c>
       <c r="B759" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>760</v>
       </c>
       <c r="B760" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>766</v>
       </c>
       <c r="B766" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>767</v>
       </c>
       <c r="B767" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>768</v>
       </c>
       <c r="B768" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>769</v>
       </c>
       <c r="B769" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9144,7 +9144,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9152,7 +9152,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -9160,7 +9160,7 @@
         <v>772</v>
       </c>
       <c r="B772" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -9168,7 +9168,7 @@
         <v>773</v>
       </c>
       <c r="B773" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -9176,7 +9176,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9192,7 +9192,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -9200,7 +9200,7 @@
         <v>777</v>
       </c>
       <c r="B777" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -9208,7 +9208,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -9216,7 +9216,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -9224,7 +9224,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9232,7 +9232,7 @@
         <v>781</v>
       </c>
       <c r="B781" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9240,7 +9240,7 @@
         <v>782</v>
       </c>
       <c r="B782" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -9248,7 +9248,7 @@
         <v>783</v>
       </c>
       <c r="B783" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -9256,7 +9256,7 @@
         <v>784</v>
       </c>
       <c r="B784" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -9264,7 +9264,7 @@
         <v>785</v>
       </c>
       <c r="B785" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -9272,7 +9272,7 @@
         <v>786</v>
       </c>
       <c r="B786" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -9280,7 +9280,7 @@
         <v>787</v>
       </c>
       <c r="B787" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -9288,7 +9288,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -9296,7 +9296,7 @@
         <v>789</v>
       </c>
       <c r="B789" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -9304,7 +9304,7 @@
         <v>790</v>
       </c>
       <c r="B790" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -9312,7 +9312,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -9320,7 +9320,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -9328,7 +9328,7 @@
         <v>793</v>
       </c>
       <c r="B793" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -9336,7 +9336,7 @@
         <v>794</v>
       </c>
       <c r="B794" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -9344,7 +9344,7 @@
         <v>795</v>
       </c>
       <c r="B795" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -9352,7 +9352,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -9360,7 +9360,7 @@
         <v>797</v>
       </c>
       <c r="B797" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="798" spans="1:2">
